--- a/result/table/RQ3-1.xlsx
+++ b/result/table/RQ3-1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Approach</t>
   </si>
@@ -44,27 +44,6 @@
   </si>
   <si>
     <t>XGMP</t>
-  </si>
-  <si>
-    <t>0.7141</t>
-  </si>
-  <si>
-    <t>0.7143</t>
-  </si>
-  <si>
-    <t>0.8150</t>
-  </si>
-  <si>
-    <t>0.7341</t>
-  </si>
-  <si>
-    <t>0.7135</t>
-  </si>
-  <si>
-    <t>0.8104</t>
-  </si>
-  <si>
-    <t>0.8154</t>
   </si>
 </sst>
 </file>
@@ -446,8 +425,8 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="C2">
+        <v>0.7136666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -457,8 +436,8 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="C3">
+        <v>0.7138181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -466,10 +445,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>0.8145654761904763</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -479,8 +458,8 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
+      <c r="C5">
+        <v>0.7336428571428572</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,8 +469,8 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
+      <c r="C6">
+        <v>0.7130757575757576</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -499,10 +478,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>0.8100178571428571</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -510,10 +489,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>0.8150178571428571</v>
       </c>
     </row>
   </sheetData>
